--- a/Bulk Loads/1023/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1023/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="F331" s="5" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="G331" s="6">
         <f>IF(E331&gt;1,(1.732*D331*F331)/1000,(D331*F331)/1000)</f>
@@ -8915,11 +8915,15 @@
         <f>IF(E367&gt;1,(1.732*D367*F367)/1000,(D367*F367)/1000)</f>
         <v/>
       </c>
-      <c r="N367" t="n">
-        <v>2028</v>
-      </c>
-      <c r="O367" t="n">
-        <v>1216</v>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
       </c>
       <c r="S367" t="inlineStr">
         <is>
@@ -13926,8 +13930,10 @@
       <c r="N579" t="n">
         <v>1340</v>
       </c>
-      <c r="O579" t="n">
-        <v>804</v>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
       </c>
       <c r="S579" t="inlineStr">
         <is>
@@ -20534,8 +20540,10 @@
       <c r="N859" t="n">
         <v>1627</v>
       </c>
-      <c r="O859" t="n">
-        <v>976</v>
+      <c r="O859" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
       </c>
       <c r="S859" t="inlineStr">
         <is>
@@ -21489,11 +21497,15 @@
         <f>IF(E899&gt;1,(1.732*D899*F899)/1000,(D899*F899)/1000)</f>
         <v/>
       </c>
-      <c r="N899" t="n">
-        <v>5180</v>
-      </c>
-      <c r="O899" t="n">
-        <v>3108</v>
+      <c r="N899" t="inlineStr">
+        <is>
+          <t>1295</t>
+        </is>
+      </c>
+      <c r="O899" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
       </c>
       <c r="S899" t="inlineStr">
         <is>
@@ -27362,8 +27374,10 @@
       <c r="N1148" t="n">
         <v>820</v>
       </c>
-      <c r="O1148" t="n">
-        <v>492</v>
+      <c r="O1148" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
       </c>
       <c r="S1148" t="inlineStr">
         <is>
@@ -28465,8 +28479,10 @@
       <c r="N1195" t="n">
         <v>1424</v>
       </c>
-      <c r="O1195" t="n">
-        <v>854</v>
+      <c r="O1195" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
       </c>
       <c r="S1195" t="inlineStr">
         <is>
@@ -37721,11 +37737,15 @@
         <f>IF(E1593&gt;1,(1.732*D1593*F1593)/1000,(D1593*F1593)/1000)</f>
         <v/>
       </c>
-      <c r="N1593" t="n">
-        <v>1786</v>
-      </c>
-      <c r="O1593" t="n">
-        <v>1071</v>
+      <c r="N1593" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="O1593" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
       </c>
       <c r="S1593" t="inlineStr">
         <is>
@@ -40652,8 +40672,10 @@
       <c r="N1716" t="n">
         <v>650</v>
       </c>
-      <c r="O1716" t="n">
-        <v>584</v>
+      <c r="O1716" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
       </c>
       <c r="S1716" t="inlineStr">
         <is>
@@ -41344,8 +41366,10 @@
       <c r="N1744" t="n">
         <v>650</v>
       </c>
-      <c r="O1744" t="n">
-        <v>584</v>
+      <c r="O1744" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
       </c>
       <c r="S1744" t="inlineStr">
         <is>
